--- a/medicine/Soins infirmiers et profession infirmière/Emma_Morosini/Emma_Morosini.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Emma_Morosini/Emma_Morosini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma Morosini, née le 8 janvier 1924 à Castiglione delle Stiviere (Province de Mantoue), et morte le 10 septembre 2020[1], est une personnalité catholique italienne, célèbre pour le grand nombre de pèlerinages qu'elle fit de 1991 à sa mort. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma Morosini, née le 8 janvier 1924 à Castiglione delle Stiviere (Province de Mantoue), et morte le 10 septembre 2020, est une personnalité catholique italienne, célèbre pour le grand nombre de pèlerinages qu'elle fit de 1991 à sa mort. 
 Partout en Europe, elle est connue sous les surnoms de l'« ânon de Dieu », de « mamie pèlerin » ou de « la Forrest Gump italienne ».
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Infirmière retraitée, Emma Morosini est atteinte d'une grave maladie de peau. Mystérieusement guérie à l'âge de 67 ans, elle attribue le recouvrement de sa santé à l'intercession de la Vierge Marie. Dès lors, elle décide de vouer sa vie à la Mère de Dieu, pour la remercier de ce miracle. Avec son seul petit chariot, elle rejoint à pieds tous les grands sanctuaires du monde, les sanctuaires mariaux en particulier ; de Lourdes à Jérusalem en passant par Pontmain, Guadalupe, Fátima, Syracuse, Aparecida, Lorette, Częstochowa, San Giovanni Rotondo ou encore Saint-Jacques-de-Compostelle. De 1991 à 2015, elle aurait effectué plus de 30 000 kilomètres à pieds[2]. 
-Le 27 décembre 2016, âgée de 93 ans, elle rejoint le sanctuaire Notre-Dame de Luján depuis la province de Tucumán, en Argentine. À cette occasion, elle parcourt plus de 1 200 kilomètres[2]. 
-En avril-mai 2018, elle parcourt encore 900 kilomètres en 40 jours, pour rejoindre la basilique Notre-Dame de Guadalupe. Elle voue alors ce pèlerinage aux familles, l'une de ses principales intentions de prières[3].
-En avril 2015, elle rencontre le pape François sur la Place Saint-Pierre, au Vatican. Celui-ci l'avait personnellement invitée à l'audience générale, après avoir été touché par les images de son pèlerinage en Argentine[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infirmière retraitée, Emma Morosini est atteinte d'une grave maladie de peau. Mystérieusement guérie à l'âge de 67 ans, elle attribue le recouvrement de sa santé à l'intercession de la Vierge Marie. Dès lors, elle décide de vouer sa vie à la Mère de Dieu, pour la remercier de ce miracle. Avec son seul petit chariot, elle rejoint à pieds tous les grands sanctuaires du monde, les sanctuaires mariaux en particulier ; de Lourdes à Jérusalem en passant par Pontmain, Guadalupe, Fátima, Syracuse, Aparecida, Lorette, Częstochowa, San Giovanni Rotondo ou encore Saint-Jacques-de-Compostelle. De 1991 à 2015, elle aurait effectué plus de 30 000 kilomètres à pieds. 
+Le 27 décembre 2016, âgée de 93 ans, elle rejoint le sanctuaire Notre-Dame de Luján depuis la province de Tucumán, en Argentine. À cette occasion, elle parcourt plus de 1 200 kilomètres. 
+En avril-mai 2018, elle parcourt encore 900 kilomètres en 40 jours, pour rejoindre la basilique Notre-Dame de Guadalupe. Elle voue alors ce pèlerinage aux familles, l'une de ses principales intentions de prières.
+En avril 2015, elle rencontre le pape François sur la Place Saint-Pierre, au Vatican. Celui-ci l'avait personnellement invitée à l'audience générale, après avoir été touché par les images de son pèlerinage en Argentine.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) Pellegrina d'eccezione : 1300 km a piedi, Milan, Presentartsì, 2013.
 (it) Avec Andrea Ligabue, L'amore si fa strada, Milan, Mondadori, 2017.</t>
